--- a/tabular/genus/cress-refseqs-side-data.xlsx
+++ b/tabular/genus/cress-refseqs-side-data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219FB9DC-8934-FA40-BD6F-19DDFE7B6127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A33793-B9DC-6644-9C3D-D27FFB73FC9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22100" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="294">
   <si>
     <t>PCV-1</t>
   </si>
@@ -298,13 +300,625 @@
   </si>
   <si>
     <t>Circoviridae</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>NC_026641</t>
+  </si>
+  <si>
+    <t>AHEaCV-14</t>
+  </si>
+  <si>
+    <t>Avon-Heatchote Estuary Associated Virus 14</t>
+  </si>
+  <si>
+    <t>CRESS-1</t>
+  </si>
+  <si>
+    <t>CRESS</t>
+  </si>
+  <si>
+    <t>Metagenome</t>
+  </si>
+  <si>
+    <t>NC_025710</t>
+  </si>
+  <si>
+    <t>CV-5-LDMD-2013</t>
+  </si>
+  <si>
+    <t>Circoviridae 5-LDMD-2014</t>
+  </si>
+  <si>
+    <t>NC_025716</t>
+  </si>
+  <si>
+    <t>CV-11-LDMD-2013</t>
+  </si>
+  <si>
+    <t>Circoviridae 11-LDMD-2014</t>
+  </si>
+  <si>
+    <t>NC_025717</t>
+  </si>
+  <si>
+    <t>CV-13-LDMD-2013</t>
+  </si>
+  <si>
+    <t>Circoviridae 13-LDMD-2014</t>
+  </si>
+  <si>
+    <t>NC_025720</t>
+  </si>
+  <si>
+    <t>CV-16-LDMD-2013</t>
+  </si>
+  <si>
+    <t>Circoviridae 16-LDMD-2014</t>
+  </si>
+  <si>
+    <t>NC_026639</t>
+  </si>
+  <si>
+    <t>AHEaCV-13</t>
+  </si>
+  <si>
+    <t>Avon-Heatchote Estuary Associated Virus 13</t>
+  </si>
+  <si>
+    <t>NC_026648</t>
+  </si>
+  <si>
+    <t>AHEaCV-21</t>
+  </si>
+  <si>
+    <t>Avon-Heatchote Estuary Associated Virus 21</t>
+  </si>
+  <si>
+    <t>NC_027795</t>
+  </si>
+  <si>
+    <t>COACV</t>
+  </si>
+  <si>
+    <t>Calanoida sp. copepod associated circular virus</t>
+  </si>
+  <si>
+    <t>Calanoida</t>
+  </si>
+  <si>
+    <t>NC_025683</t>
+  </si>
+  <si>
+    <t>CvPo-41</t>
+  </si>
+  <si>
+    <t>Po-Circo-like virus 41</t>
+  </si>
+  <si>
+    <t>CRESS-2</t>
+  </si>
+  <si>
+    <t>MK059763</t>
+  </si>
+  <si>
+    <t>HLVV</t>
+  </si>
+  <si>
+    <t>Human lung-associated vientovirus FB</t>
+  </si>
+  <si>
+    <t>Redondoviridae</t>
+  </si>
+  <si>
+    <t>Vientovirus</t>
+  </si>
+  <si>
+    <t>KJ888053</t>
+  </si>
+  <si>
+    <t>EACMKV</t>
+  </si>
+  <si>
+    <t>East African cassava mosaic Kenya virus</t>
+  </si>
+  <si>
+    <t>Gemininviridae</t>
+  </si>
+  <si>
+    <t>Gemininvirus</t>
+  </si>
+  <si>
+    <t>MK059757</t>
+  </si>
+  <si>
+    <t>L-BrV-RC</t>
+  </si>
+  <si>
+    <t>Human lung-associated brisavirus RC</t>
+  </si>
+  <si>
+    <t>Brisavirus</t>
+  </si>
+  <si>
+    <t>MF669476</t>
+  </si>
+  <si>
+    <t>CBSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cattle blood-associated circovirus-like virus </t>
+  </si>
+  <si>
+    <t>Smacoviridae</t>
+  </si>
+  <si>
+    <t>Porprismacovirus</t>
+  </si>
+  <si>
+    <t>Smacovirus</t>
+  </si>
+  <si>
+    <t>NC_030123</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-3</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 3</t>
+  </si>
+  <si>
+    <t>Bovismacovirus</t>
+  </si>
+  <si>
+    <t>NC_039054</t>
+  </si>
+  <si>
+    <t>Bovine-SCV</t>
+  </si>
+  <si>
+    <t>Circoviridae bovine stool/BK/KOR/2011</t>
+  </si>
+  <si>
+    <t>NC_039055</t>
+  </si>
+  <si>
+    <t>Odonata-CV-21</t>
+  </si>
+  <si>
+    <t>Odonata-associated circular virus 21</t>
+  </si>
+  <si>
+    <t>NC_030128</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-4</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 4</t>
+  </si>
+  <si>
+    <t>Cosmacovirus</t>
+  </si>
+  <si>
+    <t>NC_039056</t>
+  </si>
+  <si>
+    <t>Odonata-CV-5</t>
+  </si>
+  <si>
+    <t>Odonata-associated circular virus 5</t>
+  </si>
+  <si>
+    <t>Dragsmacovirus</t>
+  </si>
+  <si>
+    <t>NC_030125</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-5</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 5</t>
+  </si>
+  <si>
+    <t>Drosmacovirus</t>
+  </si>
+  <si>
+    <t>NC_039057</t>
+  </si>
+  <si>
+    <t>Camel-SCV-1</t>
+  </si>
+  <si>
+    <t>Camel associated drosmacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_039058</t>
+  </si>
+  <si>
+    <t>Camel-SCV-2</t>
+  </si>
+  <si>
+    <t>Camel associated drosmacovirus 2</t>
+  </si>
+  <si>
+    <t>NC_030124</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-1</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 1</t>
+  </si>
+  <si>
+    <t>Huchismacovirus</t>
+  </si>
+  <si>
+    <t>NC_030129</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-6</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 6</t>
+  </si>
+  <si>
+    <t>NC_039059</t>
+  </si>
+  <si>
+    <t>Chicken-HuchiSCV-1</t>
+  </si>
+  <si>
+    <t>Chicken associated huchismacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_039060</t>
+  </si>
+  <si>
+    <t>Chicken-HuchiSCV-2</t>
+  </si>
+  <si>
+    <t>Chicken associated huchismacovirus 2</t>
+  </si>
+  <si>
+    <t>NC_033275</t>
+  </si>
+  <si>
+    <t>Chicken-SCV</t>
+  </si>
+  <si>
+    <t>Chicken associated smacovirus</t>
+  </si>
+  <si>
+    <t>NC_039061</t>
+  </si>
+  <si>
+    <t>HuchiSCV-1</t>
+  </si>
+  <si>
+    <t>Human associated huchismacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_039062</t>
+  </si>
+  <si>
+    <t>HuchiSCV-2</t>
+  </si>
+  <si>
+    <t>Human associated huchismacovirus 2</t>
+  </si>
+  <si>
+    <t>NC_039063</t>
+  </si>
+  <si>
+    <t>HuchiSCV-3</t>
+  </si>
+  <si>
+    <t>Human associated huchismacovirus 3</t>
+  </si>
+  <si>
+    <t>NC_026252</t>
+  </si>
+  <si>
+    <t>Human-SCV-1</t>
+  </si>
+  <si>
+    <t>Human smacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_040359</t>
+  </si>
+  <si>
+    <t>Alces-SCV</t>
+  </si>
+  <si>
+    <t>Alces alces faeces associated smacovirus MP78</t>
+  </si>
+  <si>
+    <t>NC_030119</t>
+  </si>
+  <si>
+    <t>Bovine-SCV-2</t>
+  </si>
+  <si>
+    <t>Bovine faeces associated smacovirus 2</t>
+  </si>
+  <si>
+    <t>NC_039064</t>
+  </si>
+  <si>
+    <t>Camel-PoSCV-1</t>
+  </si>
+  <si>
+    <t>Camel associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_039065</t>
+  </si>
+  <si>
+    <t>Camel-PoSCV-2</t>
+  </si>
+  <si>
+    <t>Camel associated porprismacovirus 2</t>
+  </si>
+  <si>
+    <t>NC_039066</t>
+  </si>
+  <si>
+    <t>Camel-PoSCV-3</t>
+  </si>
+  <si>
+    <t>Camel associated porprismacovirus 3</t>
+  </si>
+  <si>
+    <t>NC_039067</t>
+  </si>
+  <si>
+    <t>Camel-PoSCV-4</t>
+  </si>
+  <si>
+    <t>Camel associated porprismacovirus 4</t>
+  </si>
+  <si>
+    <t>NC_039068</t>
+  </si>
+  <si>
+    <t>Chimp-PoSCV-1</t>
+  </si>
+  <si>
+    <t>Chimpanzee associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_039069</t>
+  </si>
+  <si>
+    <t>Chimp-PoSCV-2</t>
+  </si>
+  <si>
+    <t>Chimpanzee associated porprismacovirus 2</t>
+  </si>
+  <si>
+    <t>NC_040336</t>
+  </si>
+  <si>
+    <t>Fly-SCV--1</t>
+  </si>
+  <si>
+    <t>Fly associated circular virus 4</t>
+  </si>
+  <si>
+    <t>NC_026319</t>
+  </si>
+  <si>
+    <t>Gorilla-SCV--1</t>
+  </si>
+  <si>
+    <t>Gorilla associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_026317</t>
+  </si>
+  <si>
+    <t>Howler-SCV--1</t>
+  </si>
+  <si>
+    <t>Howler monkey associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_026318</t>
+  </si>
+  <si>
+    <t>Human-PoSCV-2</t>
+  </si>
+  <si>
+    <t>Human associated porprismacovirus 2</t>
+  </si>
+  <si>
+    <t>NC_039070</t>
+  </si>
+  <si>
+    <t>Human-SCV-2</t>
+  </si>
+  <si>
+    <t>Human feces smacovirus 2</t>
+  </si>
+  <si>
+    <t>NC_035474</t>
+  </si>
+  <si>
+    <t>Human feces smacovirus 3</t>
+  </si>
+  <si>
+    <t>NC_026320</t>
+  </si>
+  <si>
+    <t>Lemur-PoSCV-1</t>
+  </si>
+  <si>
+    <t>Lemur associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_024119</t>
+  </si>
+  <si>
+    <t>PoSCV</t>
+  </si>
+  <si>
+    <t>PoSCV Kor J481</t>
+  </si>
+  <si>
+    <t>NC_030126</t>
+  </si>
+  <si>
+    <t>PoSCV-10</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 10</t>
+  </si>
+  <si>
+    <t>NC_021204</t>
+  </si>
+  <si>
+    <t>PoSCV-3</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 3</t>
+  </si>
+  <si>
+    <t>NC_039071</t>
+  </si>
+  <si>
+    <t>PoSCV-4</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 4</t>
+  </si>
+  <si>
+    <t>NC_024772</t>
+  </si>
+  <si>
+    <t>PoSCV-5</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 5</t>
+  </si>
+  <si>
+    <t>NC_024776</t>
+  </si>
+  <si>
+    <t>PoSCV-6</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 6</t>
+  </si>
+  <si>
+    <t>NC_024773</t>
+  </si>
+  <si>
+    <t>PoSCV-7</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 7</t>
+  </si>
+  <si>
+    <t>NC_024775</t>
+  </si>
+  <si>
+    <t>PoSCV-8</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 8</t>
+  </si>
+  <si>
+    <t>NC_024774</t>
+  </si>
+  <si>
+    <t>PoSCV-9</t>
+  </si>
+  <si>
+    <t>Porcine associated porprismacovirus 9</t>
+  </si>
+  <si>
+    <t>NC_030127</t>
+  </si>
+  <si>
+    <t>PoaPSV</t>
+  </si>
+  <si>
+    <t>Porcine stool-associated circular virus</t>
+  </si>
+  <si>
+    <t>NC_021203</t>
+  </si>
+  <si>
+    <t>PoaPSV-2</t>
+  </si>
+  <si>
+    <t>Porcine stool-associated circular virus 2</t>
+  </si>
+  <si>
+    <t>NC_027777</t>
+  </si>
+  <si>
+    <t>RaaPSV-1</t>
+  </si>
+  <si>
+    <t>Rat associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_030121</t>
+  </si>
+  <si>
+    <t>OvaPSV-1</t>
+  </si>
+  <si>
+    <t>Sheep faeces associated smacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_030122</t>
+  </si>
+  <si>
+    <t>OvaPSV-2</t>
+  </si>
+  <si>
+    <t>Sheep faeces associated smacovirus 2</t>
+  </si>
+  <si>
+    <t>NC_030120</t>
+  </si>
+  <si>
+    <t>OvaPSV-3</t>
+  </si>
+  <si>
+    <t>Sheep faeces associated smacovirus 3</t>
+  </si>
+  <si>
+    <t>NC_023887</t>
+  </si>
+  <si>
+    <t>TaPSV</t>
+  </si>
+  <si>
+    <t>Turkey associated porprismacovirus 1</t>
+  </si>
+  <si>
+    <t>NC_017916</t>
+  </si>
+  <si>
+    <t>GER2011</t>
+  </si>
+  <si>
+    <t>Pig stool associated circular ssDNA virus GER2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,8 +973,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +1030,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -762,7 +1401,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,6 +1416,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="330">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1448,7 +2091,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:H20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1995,4 +2638,1676 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F766F3-CA74-D14F-B063-64968A03E6E7}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="47.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BA7F86-8AC3-194B-A134-09D7C58B0B96}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>